--- a/data/trans_orig/P43A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>25322</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17764</v>
+        <v>17087</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34660</v>
+        <v>34896</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2790975458791214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1957931840576903</v>
+        <v>0.1883315006208056</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3820219519867273</v>
+        <v>0.3846265730457182</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>36105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27337</v>
+        <v>27329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45378</v>
+        <v>46280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.397950098966821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.301308506715936</v>
+        <v>0.301215815165682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5001556177449479</v>
+        <v>0.5100927274179839</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>13730</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8059</v>
+        <v>7435</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21711</v>
+        <v>21193</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1513278032559307</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08882741231680912</v>
+        <v>0.08194583470045591</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2392999206836265</v>
+        <v>0.2335914390917546</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>15571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9683</v>
+        <v>9465</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23438</v>
+        <v>23124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1716245518981269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1067269131192136</v>
+        <v>0.1043230874073991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2583348669163678</v>
+        <v>0.2548719263829926</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>48884</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>35654</v>
+        <v>37274</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>60282</v>
+        <v>60540</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2712083475571738</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1978096654835682</v>
+        <v>0.2068000647883661</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.334449090823867</v>
+        <v>0.3358757166296715</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>67410</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54624</v>
+        <v>54739</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81765</v>
+        <v>81056</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3739935928503669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3030539536239095</v>
+        <v>0.3036922888014687</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4536355700614302</v>
+        <v>0.449703196445288</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>46662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35813</v>
+        <v>35013</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59261</v>
+        <v>58858</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2588797153072588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1986920753785983</v>
+        <v>0.1942541356359354</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3287797734331719</v>
+        <v>0.3265445176873586</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>17289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10726</v>
+        <v>10404</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26385</v>
+        <v>26245</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09591834428520046</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05950980340271277</v>
+        <v>0.05772054481599351</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.146384481231933</v>
+        <v>0.145610604070476</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>28387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20321</v>
+        <v>19101</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38146</v>
+        <v>37291</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2102832024953528</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1505316954405193</v>
+        <v>0.1414949219752259</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2825741612735826</v>
+        <v>0.2762403979496565</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>48814</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>38489</v>
+        <v>38150</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>59707</v>
+        <v>58767</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3615992934456284</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2851095217730393</v>
+        <v>0.2825975115795152</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4422850848429541</v>
+        <v>0.435323514331855</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>22934</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15662</v>
+        <v>15841</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32280</v>
+        <v>33134</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1698846707792996</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1160154757955604</v>
+        <v>0.1173436512185531</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2391178244725098</v>
+        <v>0.2454460555642999</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>34860</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26359</v>
+        <v>25939</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45962</v>
+        <v>46432</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2582328332797191</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.195259642408232</v>
+        <v>0.1921452731658527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.340468422714764</v>
+        <v>0.3439486290049836</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>49606</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38646</v>
+        <v>39172</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62919</v>
+        <v>61504</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3259765506526255</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2539517176113773</v>
+        <v>0.2574111001746337</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4134605306911306</v>
+        <v>0.4041628608906346</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>39667</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30047</v>
+        <v>29983</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50351</v>
+        <v>50794</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2606663842468924</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1974493401346658</v>
+        <v>0.1970287224312929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3308696526783764</v>
+        <v>0.3337808188204725</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>38056</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28475</v>
+        <v>29057</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48116</v>
+        <v>49086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.250080300053118</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.187115303884228</v>
+        <v>0.1909415499734601</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3161857380283125</v>
+        <v>0.3225613017572271</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>24847</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16902</v>
+        <v>17037</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33967</v>
+        <v>34831</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1632767650473641</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1110667128891181</v>
+        <v>0.1119542274766374</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2232055096383675</v>
+        <v>0.228885390556944</v>
       </c>
     </row>
     <row r="23">
@@ -1220,19 +1220,19 @@
         <v>12095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6723</v>
+        <v>6327</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19380</v>
+        <v>20086</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.197049972382778</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1095303020761682</v>
+        <v>0.1030864154517265</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3157335993779143</v>
+        <v>0.3272337339226206</v>
       </c>
     </row>
     <row r="25">
@@ -1249,19 +1249,19 @@
         <v>27348</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19440</v>
+        <v>20009</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35084</v>
+        <v>35230</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4455491742038307</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3167161658007234</v>
+        <v>0.3259891213922173</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5715810371601051</v>
+        <v>0.5739697334706048</v>
       </c>
     </row>
     <row r="26">
@@ -1278,19 +1278,19 @@
         <v>14964</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9056</v>
+        <v>8927</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22953</v>
+        <v>22586</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2437872158961998</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1475340388960767</v>
+        <v>0.1454365066901843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.373946863482533</v>
+        <v>0.367974044929613</v>
       </c>
     </row>
     <row r="27">
@@ -1307,19 +1307,19 @@
         <v>6974</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2994</v>
+        <v>3018</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>12941</v>
+        <v>13642</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1136136375171915</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04878079708095579</v>
+        <v>0.04916190722168871</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2108400430239619</v>
+        <v>0.2222550779250541</v>
       </c>
     </row>
     <row r="28">
@@ -1369,19 +1369,19 @@
         <v>24550</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16746</v>
+        <v>17004</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34459</v>
+        <v>34457</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.231383163418927</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1578310317640414</v>
+        <v>0.1602565885090419</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3247694986585323</v>
+        <v>0.3247506673947529</v>
       </c>
     </row>
     <row r="30">
@@ -1398,19 +1398,19 @@
         <v>34722</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25429</v>
+        <v>26428</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>44667</v>
+        <v>45706</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3272471507420122</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2396633813539695</v>
+        <v>0.2490805333677512</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.42098301340467</v>
+        <v>0.430771474667281</v>
       </c>
     </row>
     <row r="31">
@@ -1427,19 +1427,19 @@
         <v>25584</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17485</v>
+        <v>17904</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35212</v>
+        <v>35628</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2411220834244949</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1647951505488713</v>
+        <v>0.1687415394860235</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3318650730815939</v>
+        <v>0.3357931672271572</v>
       </c>
     </row>
     <row r="32">
@@ -1456,19 +1456,19 @@
         <v>21247</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14161</v>
+        <v>14102</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30433</v>
+        <v>30323</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2002476024145659</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1334697065107289</v>
+        <v>0.1329062267672796</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2868292443503707</v>
+        <v>0.2857886023544634</v>
       </c>
     </row>
     <row r="33">
@@ -1518,19 +1518,19 @@
         <v>73213</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>59437</v>
+        <v>59490</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>88854</v>
+        <v>87292</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.265438187632998</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2154928639315161</v>
+        <v>0.21568443889267</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3221463201320408</v>
+        <v>0.3164820149410996</v>
       </c>
     </row>
     <row r="35">
@@ -1547,19 +1547,19 @@
         <v>88797</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>74830</v>
+        <v>74068</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>105327</v>
+        <v>104316</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3219389125109441</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.271299276333835</v>
+        <v>0.2685369919288866</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3818684180339418</v>
+        <v>0.3782015337216462</v>
       </c>
     </row>
     <row r="36">
@@ -1576,19 +1576,19 @@
         <v>61548</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>48608</v>
+        <v>49218</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>76242</v>
+        <v>77443</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2231469119332346</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1762318635046877</v>
+        <v>0.1784437069549296</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.276420311109505</v>
+        <v>0.2807752254809354</v>
       </c>
     </row>
     <row r="37">
@@ -1605,19 +1605,19 @@
         <v>52261</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>40427</v>
+        <v>40226</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>66467</v>
+        <v>67721</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1894759879228233</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1465692550152727</v>
+        <v>0.1458428453376658</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2409808070612756</v>
+        <v>0.245524317865077</v>
       </c>
     </row>
     <row r="38">
@@ -1667,19 +1667,19 @@
         <v>42091</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>31878</v>
+        <v>31031</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>56173</v>
+        <v>54863</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1582079427730442</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1198219022049287</v>
+        <v>0.1166369443573228</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2111392631607295</v>
+        <v>0.2062154479589509</v>
       </c>
     </row>
     <row r="40">
@@ -1696,19 +1696,19 @@
         <v>105458</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>89918</v>
+        <v>90153</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>123166</v>
+        <v>120901</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3963874892928624</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3379780364006736</v>
+        <v>0.3388598949976482</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4629475383443962</v>
+        <v>0.4544349552030843</v>
       </c>
     </row>
     <row r="41">
@@ -1725,19 +1725,19 @@
         <v>71812</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>57575</v>
+        <v>58560</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>87417</v>
+        <v>87366</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2699207617267568</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.216407511205908</v>
+        <v>0.2201109235633128</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3285777167333409</v>
+        <v>0.3283843897230519</v>
       </c>
     </row>
     <row r="42">
@@ -1754,19 +1754,19 @@
         <v>46687</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>34976</v>
+        <v>35668</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>60242</v>
+        <v>60757</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1754838062073366</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1314668432129237</v>
+        <v>0.134066498355527</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2264338594614712</v>
+        <v>0.2283684270600885</v>
       </c>
     </row>
     <row r="43">
@@ -1816,19 +1816,19 @@
         <v>304148</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>277767</v>
+        <v>275458</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>337615</v>
+        <v>332467</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2399603057706953</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2191468051465074</v>
+        <v>0.2173252149045765</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2663642881641601</v>
+        <v>0.2623026761578416</v>
       </c>
     </row>
     <row r="45">
@@ -1845,19 +1845,19 @@
         <v>448321</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>410377</v>
+        <v>413092</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>480226</v>
+        <v>481067</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3537069799524601</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3237706923746241</v>
+        <v>0.3259122615970425</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3788783258186811</v>
+        <v>0.3795416746159089</v>
       </c>
     </row>
     <row r="46">
@@ -1874,19 +1874,19 @@
         <v>295289</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>265226</v>
+        <v>265097</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>323560</v>
+        <v>323981</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2329704129201242</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2092519939268311</v>
+        <v>0.2091503677878019</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2552754907137014</v>
+        <v>0.2556078925520705</v>
       </c>
     </row>
     <row r="47">
@@ -1903,19 +1903,19 @@
         <v>219736</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>192850</v>
+        <v>195772</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>247941</v>
+        <v>247311</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1733623013567203</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1521502973554974</v>
+        <v>0.1544559626673838</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1956148378890754</v>
+        <v>0.1951181775500997</v>
       </c>
     </row>
     <row r="48">
@@ -2087,19 +2087,19 @@
         <v>36092</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26046</v>
+        <v>26101</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46744</v>
+        <v>46953</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2479207542957406</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1789150706728783</v>
+        <v>0.179295898978507</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.321095244492409</v>
+        <v>0.3225311636986842</v>
       </c>
     </row>
     <row r="5">
@@ -2116,19 +2116,19 @@
         <v>38985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27596</v>
+        <v>27112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51308</v>
+        <v>51184</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2677986800558249</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1895623186180863</v>
+        <v>0.1862348990536216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3524446101976633</v>
+        <v>0.3515970609011979</v>
       </c>
     </row>
     <row r="6">
@@ -2145,19 +2145,19 @@
         <v>44227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33531</v>
+        <v>33334</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57252</v>
+        <v>56225</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3038069361792893</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2303328877621413</v>
+        <v>0.228975385387897</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3932796597009382</v>
+        <v>0.3862192639085193</v>
       </c>
     </row>
     <row r="7">
@@ -2174,19 +2174,19 @@
         <v>26273</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16715</v>
+        <v>16307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37328</v>
+        <v>37153</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1804736294691451</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1148220919099925</v>
+        <v>0.1120187831355051</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2564112169307319</v>
+        <v>0.2552136992269261</v>
       </c>
     </row>
     <row r="8">
@@ -2236,19 +2236,19 @@
         <v>39820</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>28516</v>
+        <v>28322</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>52403</v>
+        <v>53204</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1823883792378128</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1306117588732801</v>
+        <v>0.1297227462435629</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2400240318594548</v>
+        <v>0.2436932696058241</v>
       </c>
     </row>
     <row r="10">
@@ -2265,19 +2265,19 @@
         <v>89861</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>74249</v>
+        <v>74437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105981</v>
+        <v>105359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4115908530087947</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3400847058656981</v>
+        <v>0.3409438814229669</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4854285217584605</v>
+        <v>0.482580693760475</v>
       </c>
     </row>
     <row r="11">
@@ -2294,19 +2294,19 @@
         <v>54802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42546</v>
+        <v>41958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69548</v>
+        <v>68673</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2510119028070073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1948759407244251</v>
+        <v>0.1921823132658166</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3185533927536143</v>
+        <v>0.3145431930770264</v>
       </c>
     </row>
     <row r="12">
@@ -2323,19 +2323,19 @@
         <v>33842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23322</v>
+        <v>23259</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46577</v>
+        <v>46269</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1550088649463852</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1068231943618854</v>
+        <v>0.1065352776480025</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2133356490737307</v>
+        <v>0.2119289386349595</v>
       </c>
     </row>
     <row r="13">
@@ -2385,19 +2385,19 @@
         <v>22823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14255</v>
+        <v>14744</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34349</v>
+        <v>33884</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1435644147558875</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08966458008702886</v>
+        <v>0.09274048431991173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2160635350635048</v>
+        <v>0.2131382253205966</v>
       </c>
     </row>
     <row r="15">
@@ -2414,19 +2414,19 @@
         <v>74903</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>60877</v>
+        <v>62002</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>87488</v>
+        <v>87969</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4711545818950355</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3829286314836421</v>
+        <v>0.3900063786581333</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5503159340881706</v>
+        <v>0.5533456324465564</v>
       </c>
     </row>
     <row r="16">
@@ -2443,19 +2443,19 @@
         <v>38185</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27773</v>
+        <v>28526</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48689</v>
+        <v>50327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2401927375281378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1746960431600849</v>
+        <v>0.1794346475735959</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3062642108409046</v>
+        <v>0.3165648422743875</v>
       </c>
     </row>
     <row r="17">
@@ -2472,19 +2472,19 @@
         <v>23066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15044</v>
+        <v>14736</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32761</v>
+        <v>34402</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1450882658209392</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09462878379137646</v>
+        <v>0.09269120438232986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.206072227578238</v>
+        <v>0.2163977320670211</v>
       </c>
     </row>
     <row r="18">
@@ -2534,19 +2534,19 @@
         <v>32158</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21779</v>
+        <v>22288</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43291</v>
+        <v>42307</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1717920927935585</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1163435370257591</v>
+        <v>0.1190625779086421</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2312633052673856</v>
+        <v>0.2260097865573253</v>
       </c>
     </row>
     <row r="20">
@@ -2563,19 +2563,19 @@
         <v>67647</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54003</v>
+        <v>55596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81634</v>
+        <v>82390</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3613756855096501</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2884925604507387</v>
+        <v>0.2970016369943421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4360973856579869</v>
+        <v>0.4401348517539705</v>
       </c>
     </row>
     <row r="21">
@@ -2592,19 +2592,19 @@
         <v>62159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50231</v>
+        <v>49942</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>75318</v>
+        <v>75266</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3320595998212787</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2683417196035669</v>
+        <v>0.2667942049060427</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4023545528675217</v>
+        <v>0.4020786098269171</v>
       </c>
     </row>
     <row r="22">
@@ -2621,19 +2621,19 @@
         <v>25228</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17247</v>
+        <v>16851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34689</v>
+        <v>35528</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1347726218755127</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09213703432481098</v>
+        <v>0.09001788396164503</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1853111133834457</v>
+        <v>0.1897926376266424</v>
       </c>
     </row>
     <row r="23">
@@ -2683,19 +2683,19 @@
         <v>25202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16566</v>
+        <v>17583</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33617</v>
+        <v>35321</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2402941222130001</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1579563785865171</v>
+        <v>0.1676518266117571</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3205317868397888</v>
+        <v>0.3367770652984319</v>
       </c>
     </row>
     <row r="25">
@@ -2712,19 +2712,19 @@
         <v>39834</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30696</v>
+        <v>30140</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49895</v>
+        <v>50259</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3798035507996799</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2926809827857902</v>
+        <v>0.2873742862808361</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4757303840206497</v>
+        <v>0.479202443967075</v>
       </c>
     </row>
     <row r="26">
@@ -2741,19 +2741,19 @@
         <v>29932</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>21275</v>
+        <v>21241</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39993</v>
+        <v>40496</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2853937935969403</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2028464097672766</v>
+        <v>0.2025237553038528</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3813249892689858</v>
+        <v>0.3861171981642688</v>
       </c>
     </row>
     <row r="27">
@@ -2770,19 +2770,19 @@
         <v>9912</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4871</v>
+        <v>4199</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>18146</v>
+        <v>17984</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09450853339037971</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04644690002029871</v>
+        <v>0.04003512569413482</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1730148926869779</v>
+        <v>0.1714738248083306</v>
       </c>
     </row>
     <row r="28">
@@ -2832,19 +2832,19 @@
         <v>38895</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29643</v>
+        <v>28608</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>50848</v>
+        <v>50913</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2856868495489337</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2177270059986391</v>
+        <v>0.2101288663002932</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3734793473323565</v>
+        <v>0.3739525377461601</v>
       </c>
     </row>
     <row r="30">
@@ -2861,19 +2861,19 @@
         <v>55636</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66613</v>
+        <v>68649</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4086497832460578</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3213758112679274</v>
+        <v>0.321598150200376</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4892711579151461</v>
+        <v>0.5042245760106123</v>
       </c>
     </row>
     <row r="31">
@@ -2890,19 +2890,19 @@
         <v>29299</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20544</v>
+        <v>20151</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>39977</v>
+        <v>39573</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2152018559823184</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1508922399012777</v>
+        <v>0.1480117776317551</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2936277116188307</v>
+        <v>0.2906643163253829</v>
       </c>
     </row>
     <row r="32">
@@ -2919,19 +2919,19 @@
         <v>12316</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6488</v>
+        <v>7023</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19792</v>
+        <v>20465</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09046151122269017</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04765174435495048</v>
+        <v>0.05158380149461447</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1453756803048249</v>
+        <v>0.1503165135319027</v>
       </c>
     </row>
     <row r="33">
@@ -2981,19 +2981,19 @@
         <v>71164</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>56457</v>
+        <v>57124</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>88512</v>
+        <v>88269</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2022651396623286</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1604653161254042</v>
+        <v>0.1623593461643094</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2515717495759691</v>
+        <v>0.2508829494432185</v>
       </c>
     </row>
     <row r="35">
@@ -3010,19 +3010,19 @@
         <v>132521</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>113765</v>
+        <v>113291</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>152219</v>
+        <v>151262</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3766554064241052</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.323346533237475</v>
+        <v>0.322000415971539</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4326430033913402</v>
+        <v>0.4299244040775101</v>
       </c>
     </row>
     <row r="36">
@@ -3039,19 +3039,19 @@
         <v>85109</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>69320</v>
+        <v>69140</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>104094</v>
+        <v>103451</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.241900942782163</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1970245226919242</v>
+        <v>0.1965134019548889</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2958616885378603</v>
+        <v>0.2940319324392969</v>
       </c>
     </row>
     <row r="37">
@@ -3068,19 +3068,19 @@
         <v>63041</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>47532</v>
+        <v>47673</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78736</v>
+        <v>79595</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1791785111314033</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1350976797450068</v>
+        <v>0.1354983057118991</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2237872263683327</v>
+        <v>0.2262288565942205</v>
       </c>
     </row>
     <row r="38">
@@ -3130,19 +3130,19 @@
         <v>75917</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>59338</v>
+        <v>60580</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>91680</v>
+        <v>93772</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2101891851628898</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1642866930774085</v>
+        <v>0.1677238789214978</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2538306535990583</v>
+        <v>0.2596231181650078</v>
       </c>
     </row>
     <row r="40">
@@ -3159,19 +3159,19 @@
         <v>137767</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>119116</v>
+        <v>118332</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>157292</v>
+        <v>156865</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3814301598966285</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3297909593537287</v>
+        <v>0.3276215002628332</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4354887489776449</v>
+        <v>0.4343058657774484</v>
       </c>
     </row>
     <row r="41">
@@ -3188,19 +3188,19 @@
         <v>99737</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>83305</v>
+        <v>83188</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>116988</v>
+        <v>118529</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2761374077889092</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2306439346321567</v>
+        <v>0.230318238828348</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3238984583241012</v>
+        <v>0.3281653505185172</v>
       </c>
     </row>
     <row r="42">
@@ -3217,19 +3217,19 @@
         <v>47764</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>36403</v>
+        <v>34715</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>62916</v>
+        <v>61829</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1322432471515725</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1007883364991413</v>
+        <v>0.09611411879578054</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1741927617496312</v>
+        <v>0.1711834784974482</v>
       </c>
     </row>
     <row r="43">
@@ -3279,19 +3279,19 @@
         <v>342072</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>305935</v>
+        <v>309856</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>373674</v>
+        <v>378385</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2055573169999588</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1838420041552916</v>
+        <v>0.1861979912076335</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2245475870341173</v>
+        <v>0.2273786352426626</v>
       </c>
     </row>
     <row r="45">
@@ -3308,19 +3308,19 @@
         <v>637154</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>597343</v>
+        <v>595474</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>684824</v>
+        <v>678924</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.3828772502411601</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3589541973780616</v>
+        <v>0.3578310586852503</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4115229736890878</v>
+        <v>0.4079779329343653</v>
       </c>
     </row>
     <row r="46">
@@ -3337,19 +3337,19 @@
         <v>443451</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>408957</v>
+        <v>402611</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>482064</v>
+        <v>478068</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2664778579691016</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2457496645419264</v>
+        <v>0.2419361809891174</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2896811368801827</v>
+        <v>0.2872798452162043</v>
       </c>
     </row>
     <row r="47">
@@ -3366,19 +3366,19 @@
         <v>241443</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>211197</v>
+        <v>213347</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>271812</v>
+        <v>274079</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1450875747897795</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1269120636966485</v>
+        <v>0.1282040892353588</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1633366959371514</v>
+        <v>0.1646988250890316</v>
       </c>
     </row>
     <row r="48">
@@ -3550,19 +3550,19 @@
         <v>36957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26528</v>
+        <v>26656</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48193</v>
+        <v>49388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2559113358252205</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1836929746411951</v>
+        <v>0.1845839583552786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.333718552098285</v>
+        <v>0.341993204171284</v>
       </c>
     </row>
     <row r="5">
@@ -3579,19 +3579,19 @@
         <v>41811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30367</v>
+        <v>30987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53037</v>
+        <v>53610</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2895228383485787</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2102808549645428</v>
+        <v>0.2145754231720475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3672559217445912</v>
+        <v>0.3712243080725234</v>
       </c>
     </row>
     <row r="6">
@@ -3608,19 +3608,19 @@
         <v>49198</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38259</v>
+        <v>38335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>61892</v>
+        <v>61647</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3406765059638378</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2649267385257915</v>
+        <v>0.2654510985299504</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.42857857101332</v>
+        <v>0.4268774400286813</v>
       </c>
     </row>
     <row r="7">
@@ -3637,19 +3637,19 @@
         <v>16447</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9620</v>
+        <v>9765</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24919</v>
+        <v>25032</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1138893198623631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0666170245030205</v>
+        <v>0.06762038601651428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1725525100199354</v>
+        <v>0.1733387741676933</v>
       </c>
     </row>
     <row r="8">
@@ -3699,19 +3699,19 @@
         <v>54020</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40728</v>
+        <v>41263</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>69271</v>
+        <v>69077</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2029480265257466</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1530107265471993</v>
+        <v>0.1550224974683234</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.260246542561743</v>
+        <v>0.2595159191665784</v>
       </c>
     </row>
     <row r="10">
@@ -3728,19 +3728,19 @@
         <v>138064</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>121517</v>
+        <v>121973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153996</v>
+        <v>155975</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5186967050566804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4565317653225285</v>
+        <v>0.4582429456298503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5785500032685076</v>
+        <v>0.5859859026833094</v>
       </c>
     </row>
     <row r="11">
@@ -3757,19 +3757,19 @@
         <v>45627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33943</v>
+        <v>32290</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60605</v>
+        <v>58151</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1714155392849807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.127523209733811</v>
+        <v>0.1213096868081295</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2276896639153105</v>
+        <v>0.2184697342872141</v>
       </c>
     </row>
     <row r="12">
@@ -3786,19 +3786,19 @@
         <v>28465</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18850</v>
+        <v>19144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>39955</v>
+        <v>40728</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1069397291325922</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07081678686489061</v>
+        <v>0.07192235611658593</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1501071894165311</v>
+        <v>0.1530121047039015</v>
       </c>
     </row>
     <row r="13">
@@ -3848,19 +3848,19 @@
         <v>41553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29976</v>
+        <v>31206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53464</v>
+        <v>55532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2210287894529827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1594484402773536</v>
+        <v>0.1659911580278539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2843822747624528</v>
+        <v>0.2953864176792609</v>
       </c>
     </row>
     <row r="15">
@@ -3877,19 +3877,19 @@
         <v>79386</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>67141</v>
+        <v>66178</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>95038</v>
+        <v>93508</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4222707344173066</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3571336558773207</v>
+        <v>0.3520104927721993</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5055213617131452</v>
+        <v>0.49738583210899</v>
       </c>
     </row>
     <row r="16">
@@ -3906,19 +3906,19 @@
         <v>46225</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34965</v>
+        <v>34953</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59300</v>
+        <v>58899</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2458803217959336</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1859867652657287</v>
+        <v>0.1859237956320985</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3154271059149828</v>
+        <v>0.3132951078528692</v>
       </c>
     </row>
     <row r="17">
@@ -3935,19 +3935,19 @@
         <v>20834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12995</v>
+        <v>13243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31631</v>
+        <v>31304</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1108201543337771</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06912121895521063</v>
+        <v>0.0704417557872876</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1682487155732989</v>
+        <v>0.1665108299277455</v>
       </c>
     </row>
     <row r="18">
@@ -3997,19 +3997,19 @@
         <v>49524</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38425</v>
+        <v>38212</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63663</v>
+        <v>62436</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2427778396054154</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1883683323290851</v>
+        <v>0.1873238121655408</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3120903894532798</v>
+        <v>0.3060768411687941</v>
       </c>
     </row>
     <row r="20">
@@ -4026,19 +4026,19 @@
         <v>77314</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62253</v>
+        <v>62786</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92546</v>
+        <v>91152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3790139589519417</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3051780607920433</v>
+        <v>0.3077922581639708</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4536851642354683</v>
+        <v>0.4468508757792791</v>
       </c>
     </row>
     <row r="21">
@@ -4055,19 +4055,19 @@
         <v>50093</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>37936</v>
+        <v>38353</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63973</v>
+        <v>65676</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2455692672322535</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1859704227135743</v>
+        <v>0.1880168156126547</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3136108949050146</v>
+        <v>0.321960117399259</v>
       </c>
     </row>
     <row r="22">
@@ -4084,19 +4084,19 @@
         <v>27057</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17642</v>
+        <v>18644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37956</v>
+        <v>38740</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1326389342103894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08648421145559082</v>
+        <v>0.09139907372319137</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.186070030486512</v>
+        <v>0.1899136920056176</v>
       </c>
     </row>
     <row r="23">
@@ -4146,19 +4146,19 @@
         <v>47563</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37952</v>
+        <v>37836</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>58846</v>
+        <v>58102</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4146951616905445</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3308964515191012</v>
+        <v>0.3298908961236502</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5130725359362427</v>
+        <v>0.506588704293633</v>
       </c>
     </row>
     <row r="25">
@@ -4175,19 +4175,19 @@
         <v>42223</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32251</v>
+        <v>32463</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52419</v>
+        <v>52357</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3681401602737104</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2811973489614605</v>
+        <v>0.2830449377676896</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4570350202814966</v>
+        <v>0.4564975263687954</v>
       </c>
     </row>
     <row r="26">
@@ -4204,19 +4204,19 @@
         <v>16948</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10464</v>
+        <v>10838</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25872</v>
+        <v>26329</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1477704911279897</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09123771139821045</v>
+        <v>0.09449951768217074</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.225576760230456</v>
+        <v>0.2295581349329765</v>
       </c>
     </row>
     <row r="27">
@@ -4233,19 +4233,19 @@
         <v>7959</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3841</v>
+        <v>3918</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15180</v>
+        <v>14208</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0693941869077554</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03348860419687601</v>
+        <v>0.03416092842742668</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1323513506380289</v>
+        <v>0.1238820422410143</v>
       </c>
     </row>
     <row r="28">
@@ -4295,19 +4295,19 @@
         <v>41462</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30191</v>
+        <v>30858</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>53376</v>
+        <v>52426</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3038835438017363</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2212714214019279</v>
+        <v>0.2261599277551011</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3911991163179262</v>
+        <v>0.3842397424843663</v>
       </c>
     </row>
     <row r="30">
@@ -4324,19 +4324,19 @@
         <v>49308</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>38106</v>
+        <v>37943</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>60680</v>
+        <v>59995</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3613859691626342</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2792821259648048</v>
+        <v>0.278086126733159</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4447287724136315</v>
+        <v>0.4397141958159359</v>
       </c>
     </row>
     <row r="31">
@@ -4353,19 +4353,19 @@
         <v>21466</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14275</v>
+        <v>14083</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31037</v>
+        <v>30105</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1573234957312332</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1046226831189403</v>
+        <v>0.1032124765970445</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2274772097562911</v>
+        <v>0.2206468277278386</v>
       </c>
     </row>
     <row r="32">
@@ -4382,19 +4382,19 @@
         <v>24206</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16312</v>
+        <v>16600</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>34592</v>
+        <v>34419</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1774069913043963</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1195551867610434</v>
+        <v>0.1216662855194151</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.253530458062206</v>
+        <v>0.2522586282573168</v>
       </c>
     </row>
     <row r="33">
@@ -4444,19 +4444,19 @@
         <v>61631</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>47222</v>
+        <v>47155</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>76025</v>
+        <v>76715</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2136080356985195</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1636678315055096</v>
+        <v>0.1634369895523805</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2634979044219646</v>
+        <v>0.2658892259053684</v>
       </c>
     </row>
     <row r="35">
@@ -4473,19 +4473,19 @@
         <v>123527</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>107367</v>
+        <v>103655</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>141662</v>
+        <v>140193</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4281330961125362</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.37212414331081</v>
+        <v>0.3592609140962216</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4909881979333686</v>
+        <v>0.4858959390812275</v>
       </c>
     </row>
     <row r="36">
@@ -4502,19 +4502,19 @@
         <v>67947</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>53792</v>
+        <v>54673</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>84258</v>
+        <v>83935</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2354979588591573</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1864369560397209</v>
+        <v>0.1894934556462023</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2920313892911832</v>
+        <v>0.2909129520103302</v>
       </c>
     </row>
     <row r="37">
@@ -4531,19 +4531,19 @@
         <v>35419</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24617</v>
+        <v>25164</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>48542</v>
+        <v>48954</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1227609093297869</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08532182759584184</v>
+        <v>0.0872169604536345</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1682426985932551</v>
+        <v>0.169669608437587</v>
       </c>
     </row>
     <row r="38">
@@ -4593,19 +4593,19 @@
         <v>96281</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>78693</v>
+        <v>77952</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>115333</v>
+        <v>115138</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2325665318873044</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1900814016731792</v>
+        <v>0.1882915787068828</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2785866822518649</v>
+        <v>0.2781159872307089</v>
       </c>
     </row>
     <row r="40">
@@ -4622,19 +4622,19 @@
         <v>154394</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>136191</v>
+        <v>135080</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>175661</v>
+        <v>176634</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3729374690665137</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3289686804382427</v>
+        <v>0.3262841441231591</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.424309191226784</v>
+        <v>0.4266582885491678</v>
       </c>
     </row>
     <row r="41">
@@ -4651,19 +4651,19 @@
         <v>114797</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>95082</v>
+        <v>97805</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>135148</v>
+        <v>136276</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2772905476334069</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2296707398210116</v>
+        <v>0.2362466976900962</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3264488970623504</v>
+        <v>0.3291747377246232</v>
       </c>
     </row>
     <row r="42">
@@ -4680,19 +4680,19 @@
         <v>48522</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>36699</v>
+        <v>35742</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>64004</v>
+        <v>61520</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1172054514127749</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08864524935798877</v>
+        <v>0.08633354469676621</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.154601227814732</v>
+        <v>0.1486010821041437</v>
       </c>
     </row>
     <row r="43">
@@ -4742,19 +4742,19 @@
         <v>428991</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>389805</v>
+        <v>395339</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>463901</v>
+        <v>468362</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2442682833160548</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2219559133417531</v>
+        <v>0.2251071619953489</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2641462142010751</v>
+        <v>0.2666866910402146</v>
       </c>
     </row>
     <row r="45">
@@ -4771,19 +4771,19 @@
         <v>706027</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>665218</v>
+        <v>662416</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>751326</v>
+        <v>749857</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.4020136492785563</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.3787769192055516</v>
+        <v>0.3771814077110091</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4278070093129216</v>
+        <v>0.4269705506531852</v>
       </c>
     </row>
     <row r="46">
@@ -4800,19 +4800,19 @@
         <v>412300</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>373031</v>
+        <v>378609</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>447327</v>
+        <v>450856</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2347646947699081</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2124048678604209</v>
+        <v>0.2155807325601169</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2547090025386862</v>
+        <v>0.2567185776034828</v>
       </c>
     </row>
     <row r="47">
@@ -4829,19 +4829,19 @@
         <v>208909</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>181639</v>
+        <v>181534</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>237022</v>
+        <v>236585</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1189533726354809</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1034255958447553</v>
+        <v>0.1033661797499817</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1349608046113967</v>
+        <v>0.1347122375901725</v>
       </c>
     </row>
     <row r="48">
@@ -5013,19 +5013,19 @@
         <v>36067</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29032</v>
+        <v>29580</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44025</v>
+        <v>43183</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.303705601084082</v>
+        <v>0.3037056010840821</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2444706118419359</v>
+        <v>0.2490834683949084</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3707172446011626</v>
+        <v>0.3636313652330397</v>
       </c>
     </row>
     <row r="5">
@@ -5042,19 +5042,19 @@
         <v>43697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36799</v>
+        <v>36424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51704</v>
+        <v>51113</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3679557620246749</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3098746177916462</v>
+        <v>0.3067162350855785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4353861386796545</v>
+        <v>0.4304033501105486</v>
       </c>
     </row>
     <row r="6">
@@ -5071,19 +5071,19 @@
         <v>14658</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10129</v>
+        <v>10234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20181</v>
+        <v>20122</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1234313765348249</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08529688256088709</v>
+        <v>0.08618138044622076</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1699420721797917</v>
+        <v>0.1694394157011245</v>
       </c>
     </row>
     <row r="7">
@@ -5100,19 +5100,19 @@
         <v>24334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19046</v>
+        <v>18600</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31624</v>
+        <v>31097</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.204907260356418</v>
+        <v>0.2049072603564181</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1603800086117299</v>
+        <v>0.1566240339491471</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2662951151284775</v>
+        <v>0.2618621820033027</v>
       </c>
     </row>
     <row r="8">
@@ -5162,19 +5162,19 @@
         <v>111192</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>99839</v>
+        <v>97998</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>124073</v>
+        <v>122643</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4858276669627727</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4362242674472042</v>
+        <v>0.4281783482883318</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5421085211448567</v>
+        <v>0.5358592689178397</v>
       </c>
     </row>
     <row r="10">
@@ -5191,19 +5191,19 @@
         <v>67597</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56553</v>
+        <v>55718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79108</v>
+        <v>79300</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2953496593386196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2470952413475327</v>
+        <v>0.2434454856404625</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3456443756060985</v>
+        <v>0.3464822916645184</v>
       </c>
     </row>
     <row r="11">
@@ -5220,19 +5220,19 @@
         <v>25191</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18733</v>
+        <v>17768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33662</v>
+        <v>33980</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1100674585355322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08184968654864834</v>
+        <v>0.07763247798112556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1470785867050521</v>
+        <v>0.1484676099033187</v>
       </c>
     </row>
     <row r="12">
@@ -5249,19 +5249,19 @@
         <v>24891</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18223</v>
+        <v>17767</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33545</v>
+        <v>33472</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1087552151630754</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07961967731157936</v>
+        <v>0.07763094768852191</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1465663481482992</v>
+        <v>0.146246371543845</v>
       </c>
     </row>
     <row r="13">
@@ -5311,19 +5311,19 @@
         <v>51503</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43215</v>
+        <v>43278</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60243</v>
+        <v>60054</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3754353679065776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3150247341010761</v>
+        <v>0.3154800507090373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4391482008366774</v>
+        <v>0.4377718391735744</v>
       </c>
     </row>
     <row r="15">
@@ -5340,19 +5340,19 @@
         <v>36197</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28723</v>
+        <v>28882</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>44040</v>
+        <v>44149</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.263865591151021</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2093829227490585</v>
+        <v>0.2105377578902019</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3210378490647757</v>
+        <v>0.3218268639856344</v>
       </c>
     </row>
     <row r="16">
@@ -5369,19 +5369,19 @@
         <v>28172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21981</v>
+        <v>20956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35722</v>
+        <v>36062</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2053647356322821</v>
+        <v>0.2053647356322822</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.160235774289063</v>
+        <v>0.1527598664719597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2604024406845725</v>
+        <v>0.2628760506206555</v>
       </c>
     </row>
     <row r="17">
@@ -5398,19 +5398,19 @@
         <v>21309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14882</v>
+        <v>15282</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28568</v>
+        <v>29182</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1553343053101191</v>
+        <v>0.1553343053101192</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1084853521322175</v>
+        <v>0.1114027398240869</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.208252240496615</v>
+        <v>0.2127264149614356</v>
       </c>
     </row>
     <row r="18">
@@ -5460,19 +5460,19 @@
         <v>65662</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55624</v>
+        <v>54828</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75466</v>
+        <v>75171</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3959730111861487</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3354362587131585</v>
+        <v>0.3306402948183326</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4550916144831171</v>
+        <v>0.4533157154341787</v>
       </c>
     </row>
     <row r="20">
@@ -5489,19 +5489,19 @@
         <v>52934</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44597</v>
+        <v>43786</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>62639</v>
+        <v>62365</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3192141091098835</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2689404917775121</v>
+        <v>0.2640509391897726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3777391750880592</v>
+        <v>0.3760870609629092</v>
       </c>
     </row>
     <row r="21">
@@ -5518,19 +5518,19 @@
         <v>26773</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20172</v>
+        <v>19581</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34990</v>
+        <v>35092</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.161451919236332</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1216439770704431</v>
+        <v>0.1180804157988214</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.211004662816251</v>
+        <v>0.2116202652802537</v>
       </c>
     </row>
     <row r="22">
@@ -5547,19 +5547,19 @@
         <v>20456</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14676</v>
+        <v>14700</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27730</v>
+        <v>27684</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1233609604676358</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08850397814048186</v>
+        <v>0.08864661253349865</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1672217463553013</v>
+        <v>0.1669466296746912</v>
       </c>
     </row>
     <row r="23">
@@ -5609,19 +5609,19 @@
         <v>35185</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29165</v>
+        <v>29320</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>41499</v>
+        <v>41272</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2936019815491488</v>
+        <v>0.2936019815491487</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2433653004682993</v>
+        <v>0.2446562071258579</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3462895615526175</v>
+        <v>0.3443892428821172</v>
       </c>
     </row>
     <row r="25">
@@ -5638,19 +5638,19 @@
         <v>46691</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40087</v>
+        <v>40233</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53045</v>
+        <v>53758</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3896099599781922</v>
+        <v>0.3896099599781921</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3345038271412577</v>
+        <v>0.3357218117082072</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4426301024275389</v>
+        <v>0.4485778048432117</v>
       </c>
     </row>
     <row r="26">
@@ -5667,19 +5667,19 @@
         <v>33244</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27741</v>
+        <v>27598</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>40150</v>
+        <v>40009</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2774047025251368</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2314822731018253</v>
+        <v>0.2302918543828427</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3350309401524605</v>
+        <v>0.3338554132157148</v>
       </c>
     </row>
     <row r="27">
@@ -5696,19 +5696,19 @@
         <v>4720</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2569</v>
+        <v>2197</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8099</v>
+        <v>7686</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03938335594752233</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02143595569493771</v>
+        <v>0.01833536522710031</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.06758087205108411</v>
+        <v>0.06413213716619184</v>
       </c>
     </row>
     <row r="28">
@@ -5758,19 +5758,19 @@
         <v>35791</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28998</v>
+        <v>28925</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42584</v>
+        <v>42769</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3103415901589101</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2514398583782659</v>
+        <v>0.2508000475044128</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3692425364994165</v>
+        <v>0.3708395908215471</v>
       </c>
     </row>
     <row r="30">
@@ -5787,19 +5787,19 @@
         <v>34948</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28598</v>
+        <v>28074</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>43379</v>
+        <v>42371</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.303030883666808</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2479666516599937</v>
+        <v>0.243422678179026</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3761310859547496</v>
+        <v>0.3673895572302323</v>
       </c>
     </row>
     <row r="31">
@@ -5816,19 +5816,19 @@
         <v>33380</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>26817</v>
+        <v>26882</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41038</v>
+        <v>39894</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2894328961908921</v>
+        <v>0.2894328961908922</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2325242943641945</v>
+        <v>0.233090319966279</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3558325027772849</v>
+        <v>0.3459172800694194</v>
       </c>
     </row>
     <row r="32">
@@ -5845,19 +5845,19 @@
         <v>11209</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7667</v>
+        <v>7265</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>17472</v>
+        <v>16407</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09719462998338982</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06648352988908345</v>
+        <v>0.06298964105798927</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1514986531178325</v>
+        <v>0.1422604369675957</v>
       </c>
     </row>
     <row r="33">
@@ -5907,19 +5907,19 @@
         <v>80045</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>67503</v>
+        <v>68494</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>94048</v>
+        <v>95260</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2450254501825876</v>
+        <v>0.2450254501825877</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2066307708700361</v>
+        <v>0.2096655513682115</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2878899903758622</v>
+        <v>0.2915983189276571</v>
       </c>
     </row>
     <row r="35">
@@ -5936,19 +5936,19 @@
         <v>86613</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>73378</v>
+        <v>72998</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>101466</v>
+        <v>101075</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2651291601323261</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.224616669251621</v>
+        <v>0.2234526021772001</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3105958661682556</v>
+        <v>0.3093995993304516</v>
       </c>
     </row>
     <row r="36">
@@ -5965,19 +5965,19 @@
         <v>103782</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>89712</v>
+        <v>90486</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>118392</v>
+        <v>119098</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3176848668486247</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2746149358022745</v>
+        <v>0.2769863356450945</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3624082469560664</v>
+        <v>0.3645682764760613</v>
       </c>
     </row>
     <row r="37">
@@ -5994,19 +5994,19 @@
         <v>56242</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>45204</v>
+        <v>45145</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>69766</v>
+        <v>68752</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1721605228364615</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1383723430092111</v>
+        <v>0.1381926127224047</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2135593568420919</v>
+        <v>0.2104548367853061</v>
       </c>
     </row>
     <row r="38">
@@ -6056,19 +6056,19 @@
         <v>66724</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>56628</v>
+        <v>56049</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>79195</v>
+        <v>77932</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2683077801633511</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2277078271020795</v>
+        <v>0.2253811248573661</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3184547000561545</v>
+        <v>0.3133781736277392</v>
       </c>
     </row>
     <row r="40">
@@ -6085,19 +6085,19 @@
         <v>89106</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>77861</v>
+        <v>76396</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>101845</v>
+        <v>101373</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3583074277085955</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3130895118123406</v>
+        <v>0.3071994115537108</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4095342851461214</v>
+        <v>0.4076354067540813</v>
       </c>
     </row>
     <row r="41">
@@ -6114,19 +6114,19 @@
         <v>76011</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>64291</v>
+        <v>64086</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>89152</v>
+        <v>88581</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3056518691438745</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2585232370089306</v>
+        <v>0.2577010817601741</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3584917070811191</v>
+        <v>0.3561961388133191</v>
       </c>
     </row>
     <row r="42">
@@ -6143,19 +6143,19 @@
         <v>16844</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11250</v>
+        <v>10917</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>24107</v>
+        <v>24426</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.06773292298417888</v>
+        <v>0.06773292298417889</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0452398605417332</v>
+        <v>0.04390011030366718</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09693801471261655</v>
+        <v>0.09821974777183018</v>
       </c>
     </row>
     <row r="43">
@@ -6205,19 +6205,19 @@
         <v>482169</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>455426</v>
+        <v>453474</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>511880</v>
+        <v>508912</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3299890886050815</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3116859303376816</v>
+        <v>0.3103500566128461</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3503224612300947</v>
+        <v>0.3482913544915392</v>
       </c>
     </row>
     <row r="45">
@@ -6234,19 +6234,19 @@
         <v>457782</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>432162</v>
+        <v>429490</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>486664</v>
+        <v>486530</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3132989137122294</v>
+        <v>0.3132989137122293</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2957647756580456</v>
+        <v>0.2939361360699164</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.333064961951215</v>
+        <v>0.3329731625334484</v>
       </c>
     </row>
     <row r="46">
@@ -6263,19 +6263,19 @@
         <v>341211</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>317371</v>
+        <v>312527</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>367359</v>
+        <v>364720</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.2335195498038788</v>
+        <v>0.2335195498038787</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2172034723592037</v>
+        <v>0.2138882308378441</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2514148048823739</v>
+        <v>0.2496085080394584</v>
       </c>
     </row>
     <row r="47">
@@ -6292,19 +6292,19 @@
         <v>180005</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>159092</v>
+        <v>159435</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>200807</v>
+        <v>202702</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1231924478788104</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1088799290346792</v>
+        <v>0.1091148126287918</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1374292887427068</v>
+        <v>0.1387260421228726</v>
       </c>
     </row>
     <row r="48">
